--- a/Code/Results/Cases/Case_4_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_80/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.042938711489014</v>
+        <v>1.068555616624326</v>
       </c>
       <c r="D2">
-        <v>1.057151011283153</v>
+        <v>1.071417616150721</v>
       </c>
       <c r="E2">
-        <v>1.060020938207535</v>
+        <v>1.081300175554434</v>
       </c>
       <c r="F2">
-        <v>1.065488745404511</v>
+        <v>1.086502401336667</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06892980167211</v>
+        <v>1.058329338103405</v>
       </c>
       <c r="J2">
-        <v>1.063906824505889</v>
+        <v>1.073494826267255</v>
       </c>
       <c r="K2">
-        <v>1.067867674663904</v>
+        <v>1.074114844067272</v>
       </c>
       <c r="L2">
-        <v>1.070702930105329</v>
+        <v>1.083971358608884</v>
       </c>
       <c r="M2">
-        <v>1.076105321678882</v>
+        <v>1.089160079707898</v>
       </c>
       <c r="N2">
-        <v>1.023984056159145</v>
+        <v>1.028032011281404</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.048487590712541</v>
+        <v>1.069702091565755</v>
       </c>
       <c r="D3">
-        <v>1.061528070948234</v>
+        <v>1.07233618452538</v>
       </c>
       <c r="E3">
-        <v>1.065131007161275</v>
+        <v>1.08240465979342</v>
       </c>
       <c r="F3">
-        <v>1.070620097768176</v>
+        <v>1.087613104602405</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.07117830946418</v>
+        <v>1.058716993473628</v>
       </c>
       <c r="J3">
-        <v>1.067738376918084</v>
+        <v>1.074297180621242</v>
       </c>
       <c r="K3">
-        <v>1.071429863823079</v>
+        <v>1.07484970978311</v>
       </c>
       <c r="L3">
-        <v>1.074993206837973</v>
+        <v>1.084893568893259</v>
       </c>
       <c r="M3">
-        <v>1.08042260527901</v>
+        <v>1.090089471891792</v>
       </c>
       <c r="N3">
-        <v>1.025349740031511</v>
+        <v>1.028311167035495</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.051995825108273</v>
+        <v>1.070443957061496</v>
       </c>
       <c r="D4">
-        <v>1.064297820598561</v>
+        <v>1.072930529969989</v>
       </c>
       <c r="E4">
-        <v>1.068366770190209</v>
+        <v>1.083119682569805</v>
       </c>
       <c r="F4">
-        <v>1.073869716027984</v>
+        <v>1.088332183736879</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072589334893962</v>
+        <v>1.058966535584599</v>
       </c>
       <c r="J4">
-        <v>1.070156913592236</v>
+        <v>1.074815785774452</v>
       </c>
       <c r="K4">
-        <v>1.073677548344962</v>
+        <v>1.075324553912134</v>
       </c>
       <c r="L4">
-        <v>1.07770456881524</v>
+        <v>1.085490049623539</v>
       </c>
       <c r="M4">
-        <v>1.083151424187059</v>
+        <v>1.090690632017859</v>
       </c>
       <c r="N4">
-        <v>1.026210730864738</v>
+        <v>1.02849135754835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.053451814678769</v>
+        <v>1.070755842870683</v>
       </c>
       <c r="D5">
-        <v>1.065447842371729</v>
+        <v>1.073180385776736</v>
       </c>
       <c r="E5">
-        <v>1.069710828164764</v>
+        <v>1.083420361726843</v>
       </c>
       <c r="F5">
-        <v>1.075219616899633</v>
+        <v>1.088634575864414</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073172363979776</v>
+        <v>1.059071132810084</v>
       </c>
       <c r="J5">
-        <v>1.071159675536938</v>
+        <v>1.075033670852813</v>
       </c>
       <c r="K5">
-        <v>1.074609265750689</v>
+        <v>1.075524019870868</v>
       </c>
       <c r="L5">
-        <v>1.078829528352522</v>
+        <v>1.085740750387119</v>
       </c>
       <c r="M5">
-        <v>1.0842837177044</v>
+        <v>1.090943307679589</v>
       </c>
       <c r="N5">
-        <v>1.026567445154847</v>
+        <v>1.028567003833789</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.053695198040971</v>
+        <v>1.070808210221698</v>
       </c>
       <c r="D6">
-        <v>1.065640109074067</v>
+        <v>1.073222337257383</v>
       </c>
       <c r="E6">
-        <v>1.069935567462399</v>
+        <v>1.083470851992206</v>
       </c>
       <c r="F6">
-        <v>1.075445338260837</v>
+        <v>1.088685354194145</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.073269670671095</v>
+        <v>1.059088676955128</v>
       </c>
       <c r="J6">
-        <v>1.071327238613241</v>
+        <v>1.075070246720483</v>
       </c>
       <c r="K6">
-        <v>1.074764944780294</v>
+        <v>1.075557501794802</v>
       </c>
       <c r="L6">
-        <v>1.079017557247515</v>
+        <v>1.085782840655843</v>
       </c>
       <c r="M6">
-        <v>1.084472977705237</v>
+        <v>1.090985729991751</v>
       </c>
       <c r="N6">
-        <v>1.026627036663751</v>
+        <v>1.028579698973237</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.052015353215451</v>
+        <v>1.070448124472006</v>
       </c>
       <c r="D7">
-        <v>1.064313243007406</v>
+        <v>1.07293386858296</v>
       </c>
       <c r="E7">
-        <v>1.068384792550986</v>
+        <v>1.083123699930536</v>
       </c>
       <c r="F7">
-        <v>1.07388781639274</v>
+        <v>1.088336223956288</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.072597164859203</v>
+        <v>1.058967934436787</v>
       </c>
       <c r="J7">
-        <v>1.070170366817683</v>
+        <v>1.074818697701547</v>
       </c>
       <c r="K7">
-        <v>1.073690049252895</v>
+        <v>1.075327219808579</v>
       </c>
       <c r="L7">
-        <v>1.077719658345514</v>
+        <v>1.085493399733684</v>
       </c>
       <c r="M7">
-        <v>1.083166611734254</v>
+        <v>1.090694008486556</v>
       </c>
       <c r="N7">
-        <v>1.026215517672181</v>
+        <v>1.02849236875347</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.044831524340669</v>
+        <v>1.068943069677355</v>
       </c>
       <c r="D8">
-        <v>1.058643561437558</v>
+        <v>1.071728056844762</v>
       </c>
       <c r="E8">
-        <v>1.06176299733085</v>
+        <v>1.081673369414488</v>
       </c>
       <c r="F8">
-        <v>1.067237978922859</v>
+        <v>1.086877690248778</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.069699002098909</v>
+        <v>1.058460616681324</v>
       </c>
       <c r="J8">
-        <v>1.065214631893113</v>
+        <v>1.073766104278329</v>
       </c>
       <c r="K8">
-        <v>1.069083709812264</v>
+        <v>1.074363332826638</v>
       </c>
       <c r="L8">
-        <v>1.072166625648013</v>
+        <v>1.0842830760731</v>
       </c>
       <c r="M8">
-        <v>1.077578147762014</v>
+        <v>1.089474217634984</v>
       </c>
       <c r="N8">
-        <v>1.02445041174447</v>
+        <v>1.028126444774473</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.031503079324816</v>
+        <v>1.066291081114362</v>
       </c>
       <c r="D9">
-        <v>1.048146192525587</v>
+        <v>1.069603030098203</v>
       </c>
       <c r="E9">
-        <v>1.049519094645758</v>
+        <v>1.079120347491209</v>
       </c>
       <c r="F9">
-        <v>1.054945394057975</v>
+        <v>1.084310461831131</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.064239104846294</v>
+        <v>1.057556717197595</v>
       </c>
       <c r="J9">
-        <v>1.055990408711513</v>
+        <v>1.071906904967158</v>
       </c>
       <c r="K9">
-        <v>1.060503606965109</v>
+        <v>1.072659750889959</v>
       </c>
       <c r="L9">
-        <v>1.061856785110572</v>
+        <v>1.082148392720213</v>
       </c>
       <c r="M9">
-        <v>1.067205762177897</v>
+        <v>1.087323100243855</v>
       </c>
       <c r="N9">
-        <v>1.021157192459616</v>
+        <v>1.027478255521939</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.022107318662944</v>
+        <v>1.064523105227756</v>
       </c>
       <c r="D10">
-        <v>1.040765056168</v>
+        <v>1.068186179784113</v>
       </c>
       <c r="E10">
-        <v>1.040919367129046</v>
+        <v>1.077420085607603</v>
       </c>
       <c r="F10">
-        <v>1.046313853295165</v>
+        <v>1.082600898429942</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.06033666067228</v>
+        <v>1.056947420470979</v>
       </c>
       <c r="J10">
-        <v>1.049470464063179</v>
+        <v>1.070664458722647</v>
       </c>
       <c r="K10">
-        <v>1.054435328681128</v>
+        <v>1.071520589528765</v>
       </c>
       <c r="L10">
-        <v>1.05458712737232</v>
+        <v>1.080723942044013</v>
       </c>
       <c r="M10">
-        <v>1.059894385709578</v>
+        <v>1.085887862632484</v>
       </c>
       <c r="N10">
-        <v>1.018825099977363</v>
+        <v>1.027043853050268</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.017902996509904</v>
+        <v>1.063757542420853</v>
       </c>
       <c r="D11">
-        <v>1.037467690130086</v>
+        <v>1.067572625602943</v>
       </c>
       <c r="E11">
-        <v>1.037079491627902</v>
+        <v>1.076684262434334</v>
       </c>
       <c r="F11">
-        <v>1.042460394602581</v>
+        <v>1.081861088301438</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.058578357134919</v>
+        <v>1.056681996332068</v>
       </c>
       <c r="J11">
-        <v>1.046549500557349</v>
+        <v>1.070125752661171</v>
       </c>
       <c r="K11">
-        <v>1.051715998505452</v>
+        <v>1.071026499427752</v>
       </c>
       <c r="L11">
-        <v>1.051334456660164</v>
+        <v>1.08010681766745</v>
       </c>
       <c r="M11">
-        <v>1.056623660571548</v>
+        <v>1.085266107952095</v>
       </c>
       <c r="N11">
-        <v>1.017779496347918</v>
+        <v>1.026855211563699</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.016319511062367</v>
+        <v>1.063473174387989</v>
       </c>
       <c r="D12">
-        <v>1.036226706895889</v>
+        <v>1.067344716588287</v>
       </c>
       <c r="E12">
-        <v>1.035634578541213</v>
+        <v>1.076411004571024</v>
       </c>
       <c r="F12">
-        <v>1.041010468991222</v>
+        <v>1.081586355657146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057914365456664</v>
+        <v>1.056583166041367</v>
       </c>
       <c r="J12">
-        <v>1.045448906180514</v>
+        <v>1.069925544638085</v>
       </c>
       <c r="K12">
-        <v>1.05069128336048</v>
+        <v>1.070842847809659</v>
       </c>
       <c r="L12">
-        <v>1.050109502919922</v>
+        <v>1.079877540288561</v>
       </c>
       <c r="M12">
-        <v>1.055392003771345</v>
+        <v>1.085035116796233</v>
       </c>
       <c r="N12">
-        <v>1.017385418306957</v>
+        <v>1.026785060146459</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.016660184928066</v>
+        <v>1.063534172494228</v>
       </c>
       <c r="D13">
-        <v>1.036493651476995</v>
+        <v>1.067393604198684</v>
       </c>
       <c r="E13">
-        <v>1.035945379350408</v>
+        <v>1.076469616623126</v>
       </c>
       <c r="F13">
-        <v>1.041322343445727</v>
+        <v>1.081645283775716</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.058057296197474</v>
+        <v>1.056604376338289</v>
       </c>
       <c r="J13">
-        <v>1.045685709957546</v>
+        <v>1.069968494863552</v>
       </c>
       <c r="K13">
-        <v>1.050911765021631</v>
+        <v>1.070882247349583</v>
       </c>
       <c r="L13">
-        <v>1.050373035626111</v>
+        <v>1.079926723333578</v>
       </c>
       <c r="M13">
-        <v>1.05565697413393</v>
+        <v>1.085084667174497</v>
       </c>
       <c r="N13">
-        <v>1.017470212453705</v>
+        <v>1.026800111556209</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.017772558599855</v>
+        <v>1.063734036557891</v>
       </c>
       <c r="D14">
-        <v>1.037365446386522</v>
+        <v>1.067553786731338</v>
       </c>
       <c r="E14">
-        <v>1.036960441436507</v>
+        <v>1.076661673641727</v>
       </c>
       <c r="F14">
-        <v>1.042340929378471</v>
+        <v>1.081838377477238</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.058523696876918</v>
+        <v>1.056673831886406</v>
       </c>
       <c r="J14">
-        <v>1.046458849344002</v>
+        <v>1.070109205622744</v>
       </c>
       <c r="K14">
-        <v>1.051631598979234</v>
+        <v>1.071011321271492</v>
       </c>
       <c r="L14">
-        <v>1.051233549812007</v>
+        <v>1.080087866549676</v>
       </c>
       <c r="M14">
-        <v>1.056522199571316</v>
+        <v>1.085247015047835</v>
       </c>
       <c r="N14">
-        <v>1.017747039825939</v>
+        <v>1.026849414490174</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.018454994443736</v>
+        <v>1.063857178846271</v>
       </c>
       <c r="D15">
-        <v>1.037900411388142</v>
+        <v>1.067652479448696</v>
       </c>
       <c r="E15">
-        <v>1.037583351848383</v>
+        <v>1.076780014190045</v>
       </c>
       <c r="F15">
-        <v>1.04296601543452</v>
+        <v>1.081957357576548</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058809601734284</v>
+        <v>1.05671659393547</v>
       </c>
       <c r="J15">
-        <v>1.046933107332503</v>
+        <v>1.070195887755099</v>
       </c>
       <c r="K15">
-        <v>1.052073146382564</v>
+        <v>1.071090831455013</v>
       </c>
       <c r="L15">
-        <v>1.051761487430719</v>
+        <v>1.080187145570659</v>
       </c>
       <c r="M15">
-        <v>1.057053040420508</v>
+        <v>1.085347037110525</v>
       </c>
       <c r="N15">
-        <v>1.017916837813441</v>
+        <v>1.026879780843569</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.022383366105665</v>
+        <v>1.064573912630347</v>
       </c>
       <c r="D16">
-        <v>1.040981675955721</v>
+        <v>1.068226898298391</v>
       </c>
       <c r="E16">
-        <v>1.041171663042844</v>
+        <v>1.077468928167563</v>
       </c>
       <c r="F16">
-        <v>1.046567055058794</v>
+        <v>1.082650006451351</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060451861048357</v>
+        <v>1.056965002168034</v>
       </c>
       <c r="J16">
-        <v>1.049662181226206</v>
+        <v>1.070700195674332</v>
       </c>
       <c r="K16">
-        <v>1.054613797868972</v>
+        <v>1.071553363221892</v>
       </c>
       <c r="L16">
-        <v>1.054800702630237</v>
+        <v>1.080764891593454</v>
       </c>
       <c r="M16">
-        <v>1.060109159525829</v>
+        <v>1.085929120336677</v>
       </c>
       <c r="N16">
-        <v>1.018893712709221</v>
+        <v>1.027056361130255</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.024810198820233</v>
+        <v>1.065023495187561</v>
       </c>
       <c r="D17">
-        <v>1.042886690306517</v>
+        <v>1.068587202785985</v>
       </c>
       <c r="E17">
-        <v>1.043390631696825</v>
+        <v>1.077901172697917</v>
       </c>
       <c r="F17">
-        <v>1.048794062026047</v>
+        <v>1.083084604700854</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.061463264710172</v>
+        <v>1.057120394897615</v>
       </c>
       <c r="J17">
-        <v>1.051347247386999</v>
+        <v>1.071016341857559</v>
       </c>
       <c r="K17">
-        <v>1.056182343501591</v>
+        <v>1.071843275758537</v>
       </c>
       <c r="L17">
-        <v>1.056678359583926</v>
+        <v>1.081127208177176</v>
       </c>
       <c r="M17">
-        <v>1.061997423614598</v>
+        <v>1.086294168405971</v>
       </c>
       <c r="N17">
-        <v>1.019496682582209</v>
+        <v>1.027166980014369</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.026212717885764</v>
+        <v>1.065285727476178</v>
       </c>
       <c r="D18">
-        <v>1.043988150682977</v>
+        <v>1.068797357628687</v>
       </c>
       <c r="E18">
-        <v>1.044673796795762</v>
+        <v>1.078153332398886</v>
       </c>
       <c r="F18">
-        <v>1.050081933978297</v>
+        <v>1.08333814120695</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062046630322065</v>
+        <v>1.057210879013371</v>
       </c>
       <c r="J18">
-        <v>1.052320749923799</v>
+        <v>1.071200675282047</v>
       </c>
       <c r="K18">
-        <v>1.057088460879398</v>
+        <v>1.072012297200355</v>
       </c>
       <c r="L18">
-        <v>1.057763520423187</v>
+        <v>1.081338509723226</v>
       </c>
       <c r="M18">
-        <v>1.063088772260062</v>
+        <v>1.086507067087469</v>
       </c>
       <c r="N18">
-        <v>1.019844954078825</v>
+        <v>1.027231449814958</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.026688774106311</v>
+        <v>1.065375141675618</v>
       </c>
       <c r="D19">
-        <v>1.044362102881991</v>
+        <v>1.068869014218291</v>
       </c>
       <c r="E19">
-        <v>1.045109470229648</v>
+        <v>1.078239318939063</v>
       </c>
       <c r="F19">
-        <v>1.050519215308651</v>
+        <v>1.083424597865798</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.062244445657364</v>
+        <v>1.057241705676871</v>
       </c>
       <c r="J19">
-        <v>1.052651127023629</v>
+        <v>1.071263516481926</v>
       </c>
       <c r="K19">
-        <v>1.05739595751842</v>
+        <v>1.072069915651727</v>
       </c>
       <c r="L19">
-        <v>1.058131857825066</v>
+        <v>1.081410552752068</v>
       </c>
       <c r="M19">
-        <v>1.063459219641957</v>
+        <v>1.08657965535962</v>
       </c>
       <c r="N19">
-        <v>1.019963132950218</v>
+        <v>1.0272534234787</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.024551178167146</v>
+        <v>1.064975259409611</v>
       </c>
       <c r="D20">
-        <v>1.042683310647212</v>
+        <v>1.068548546009795</v>
       </c>
       <c r="E20">
-        <v>1.043153715833063</v>
+        <v>1.077854792944188</v>
       </c>
       <c r="F20">
-        <v>1.048556281813371</v>
+        <v>1.083037972009507</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061355434204102</v>
+        <v>1.057103738642763</v>
       </c>
       <c r="J20">
-        <v>1.051167431164603</v>
+        <v>1.0709824295361</v>
       </c>
       <c r="K20">
-        <v>1.056014968400961</v>
+        <v>1.071812179127663</v>
       </c>
       <c r="L20">
-        <v>1.05647795077539</v>
+        <v>1.081088338308475</v>
       </c>
       <c r="M20">
-        <v>1.061795876662664</v>
+        <v>1.086255005070418</v>
       </c>
       <c r="N20">
-        <v>1.019432346671254</v>
+        <v>1.027155117067594</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.017445606259186</v>
+        <v>1.063675181691082</v>
       </c>
       <c r="D21">
-        <v>1.037109179840994</v>
+        <v>1.067506617182669</v>
       </c>
       <c r="E21">
-        <v>1.036662054599516</v>
+        <v>1.076605115996192</v>
       </c>
       <c r="F21">
-        <v>1.042041503913898</v>
+        <v>1.081781514384262</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.058386658782422</v>
+        <v>1.05665338558532</v>
       </c>
       <c r="J21">
-        <v>1.046231618064969</v>
+        <v>1.070067772814466</v>
       </c>
       <c r="K21">
-        <v>1.05142003704441</v>
+        <v>1.070973315660926</v>
       </c>
       <c r="L21">
-        <v>1.050980621259326</v>
+        <v>1.080040415271882</v>
       </c>
       <c r="M21">
-        <v>1.056267883570547</v>
+        <v>1.085199208859152</v>
       </c>
       <c r="N21">
-        <v>1.017665680938197</v>
+        <v>1.026834898257397</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.012851063307766</v>
+        <v>1.062857747920232</v>
       </c>
       <c r="D22">
-        <v>1.033510257855988</v>
+        <v>1.066851470598916</v>
       </c>
       <c r="E22">
-        <v>1.032472151914664</v>
+        <v>1.075819739136427</v>
       </c>
       <c r="F22">
-        <v>1.037837259493073</v>
+        <v>1.080991909856445</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056456798734309</v>
+        <v>1.056368842298756</v>
       </c>
       <c r="J22">
-        <v>1.043037392828702</v>
+        <v>1.069492063155038</v>
       </c>
       <c r="K22">
-        <v>1.048445870075086</v>
+        <v>1.070445168019527</v>
       </c>
       <c r="L22">
-        <v>1.047426655599401</v>
+        <v>1.079381255391337</v>
       </c>
       <c r="M22">
-        <v>1.052694657825944</v>
+        <v>1.084535134251594</v>
       </c>
       <c r="N22">
-        <v>1.016521785046629</v>
+        <v>1.026633092000631</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.0152992538279</v>
+        <v>1.063291087664353</v>
       </c>
       <c r="D23">
-        <v>1.035427396773215</v>
+        <v>1.067198780546087</v>
       </c>
       <c r="E23">
-        <v>1.034703983468911</v>
+        <v>1.07623604983116</v>
       </c>
       <c r="F23">
-        <v>1.040076674124226</v>
+        <v>1.08141045832815</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057486060609677</v>
+        <v>1.056519815810904</v>
       </c>
       <c r="J23">
-        <v>1.044739658087507</v>
+        <v>1.069797317542544</v>
       </c>
       <c r="K23">
-        <v>1.050030908625371</v>
+        <v>1.070725217575894</v>
       </c>
       <c r="L23">
-        <v>1.049320290892657</v>
+        <v>1.0797307161352</v>
       </c>
       <c r="M23">
-        <v>1.05459850078881</v>
+        <v>1.084887197012356</v>
       </c>
       <c r="N23">
-        <v>1.0171314387581</v>
+        <v>1.026740118083318</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.02466825855704</v>
+        <v>1.064997055085974</v>
       </c>
       <c r="D24">
-        <v>1.042775239071937</v>
+        <v>1.068566013357224</v>
       </c>
       <c r="E24">
-        <v>1.043260802198</v>
+        <v>1.077875749838415</v>
       </c>
       <c r="F24">
-        <v>1.048663758684319</v>
+        <v>1.083059043183249</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061404178425365</v>
+        <v>1.057111265362543</v>
       </c>
       <c r="J24">
-        <v>1.051248711257156</v>
+        <v>1.070997753268299</v>
       </c>
       <c r="K24">
-        <v>1.056090625101338</v>
+        <v>1.071826230602468</v>
       </c>
       <c r="L24">
-        <v>1.056568537856035</v>
+        <v>1.081105902026354</v>
       </c>
       <c r="M24">
-        <v>1.061886978018851</v>
+        <v>1.086272701381273</v>
       </c>
       <c r="N24">
-        <v>1.019461427878466</v>
+        <v>1.027160477584214</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.035034032466884</v>
+        <v>1.066976676602372</v>
       </c>
       <c r="D25">
-        <v>1.050924205456839</v>
+        <v>1.070152428970521</v>
       </c>
       <c r="E25">
-        <v>1.052757563254646</v>
+        <v>1.07978005400969</v>
       </c>
       <c r="F25">
-        <v>1.058196347264411</v>
+        <v>1.084973811368787</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.065694920762085</v>
+        <v>1.057791576303986</v>
       </c>
       <c r="J25">
-        <v>1.058437268457945</v>
+        <v>1.072388075980418</v>
       </c>
       <c r="K25">
-        <v>1.062780269046263</v>
+        <v>1.07310077268085</v>
       </c>
       <c r="L25">
-        <v>1.064588590932903</v>
+        <v>1.082700491840345</v>
       </c>
       <c r="M25">
-        <v>1.069953745758711</v>
+        <v>1.087879418307189</v>
       </c>
       <c r="N25">
-        <v>1.022031581228023</v>
+        <v>1.027646229137347</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_80/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.068555616624326</v>
+        <v>1.042938711489015</v>
       </c>
       <c r="D2">
-        <v>1.071417616150721</v>
+        <v>1.057151011283153</v>
       </c>
       <c r="E2">
-        <v>1.081300175554434</v>
+        <v>1.060020938207536</v>
       </c>
       <c r="F2">
-        <v>1.086502401336667</v>
+        <v>1.065488745404512</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058329338103405</v>
+        <v>1.06892980167211</v>
       </c>
       <c r="J2">
-        <v>1.073494826267255</v>
+        <v>1.063906824505889</v>
       </c>
       <c r="K2">
-        <v>1.074114844067272</v>
+        <v>1.067867674663904</v>
       </c>
       <c r="L2">
-        <v>1.083971358608884</v>
+        <v>1.07070293010533</v>
       </c>
       <c r="M2">
-        <v>1.089160079707898</v>
+        <v>1.076105321678882</v>
       </c>
       <c r="N2">
-        <v>1.028032011281404</v>
+        <v>1.023984056159145</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.069702091565755</v>
+        <v>1.048487590712541</v>
       </c>
       <c r="D3">
-        <v>1.07233618452538</v>
+        <v>1.061528070948234</v>
       </c>
       <c r="E3">
-        <v>1.08240465979342</v>
+        <v>1.065131007161275</v>
       </c>
       <c r="F3">
-        <v>1.087613104602405</v>
+        <v>1.070620097768176</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058716993473628</v>
+        <v>1.07117830946418</v>
       </c>
       <c r="J3">
-        <v>1.074297180621242</v>
+        <v>1.067738376918084</v>
       </c>
       <c r="K3">
-        <v>1.07484970978311</v>
+        <v>1.071429863823079</v>
       </c>
       <c r="L3">
-        <v>1.084893568893259</v>
+        <v>1.074993206837973</v>
       </c>
       <c r="M3">
-        <v>1.090089471891792</v>
+        <v>1.080422605279009</v>
       </c>
       <c r="N3">
-        <v>1.028311167035495</v>
+        <v>1.025349740031511</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.070443957061496</v>
+        <v>1.051995825108273</v>
       </c>
       <c r="D4">
-        <v>1.072930529969989</v>
+        <v>1.06429782059856</v>
       </c>
       <c r="E4">
-        <v>1.083119682569805</v>
+        <v>1.068366770190209</v>
       </c>
       <c r="F4">
-        <v>1.088332183736879</v>
+        <v>1.073869716027983</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058966535584599</v>
+        <v>1.072589334893961</v>
       </c>
       <c r="J4">
-        <v>1.074815785774452</v>
+        <v>1.070156913592236</v>
       </c>
       <c r="K4">
-        <v>1.075324553912134</v>
+        <v>1.073677548344961</v>
       </c>
       <c r="L4">
-        <v>1.085490049623539</v>
+        <v>1.077704568815239</v>
       </c>
       <c r="M4">
-        <v>1.090690632017859</v>
+        <v>1.083151424187059</v>
       </c>
       <c r="N4">
-        <v>1.02849135754835</v>
+        <v>1.026210730864738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070755842870683</v>
+        <v>1.053451814678769</v>
       </c>
       <c r="D5">
-        <v>1.073180385776736</v>
+        <v>1.065447842371729</v>
       </c>
       <c r="E5">
-        <v>1.083420361726843</v>
+        <v>1.069710828164764</v>
       </c>
       <c r="F5">
-        <v>1.088634575864414</v>
+        <v>1.075219616899634</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059071132810084</v>
+        <v>1.073172363979777</v>
       </c>
       <c r="J5">
-        <v>1.075033670852813</v>
+        <v>1.071159675536939</v>
       </c>
       <c r="K5">
-        <v>1.075524019870868</v>
+        <v>1.074609265750689</v>
       </c>
       <c r="L5">
-        <v>1.085740750387119</v>
+        <v>1.078829528352522</v>
       </c>
       <c r="M5">
-        <v>1.090943307679589</v>
+        <v>1.0842837177044</v>
       </c>
       <c r="N5">
-        <v>1.028567003833789</v>
+        <v>1.026567445154847</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.070808210221698</v>
+        <v>1.053695198040971</v>
       </c>
       <c r="D6">
-        <v>1.073222337257383</v>
+        <v>1.065640109074067</v>
       </c>
       <c r="E6">
-        <v>1.083470851992206</v>
+        <v>1.069935567462399</v>
       </c>
       <c r="F6">
-        <v>1.088685354194145</v>
+        <v>1.075445338260837</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059088676955128</v>
+        <v>1.073269670671095</v>
       </c>
       <c r="J6">
-        <v>1.075070246720483</v>
+        <v>1.071327238613241</v>
       </c>
       <c r="K6">
-        <v>1.075557501794802</v>
+        <v>1.074764944780294</v>
       </c>
       <c r="L6">
-        <v>1.085782840655843</v>
+        <v>1.079017557247515</v>
       </c>
       <c r="M6">
-        <v>1.090985729991751</v>
+        <v>1.084472977705236</v>
       </c>
       <c r="N6">
-        <v>1.028579698973237</v>
+        <v>1.026627036663751</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.070448124472006</v>
+        <v>1.05201535321545</v>
       </c>
       <c r="D7">
-        <v>1.07293386858296</v>
+        <v>1.064313243007405</v>
       </c>
       <c r="E7">
-        <v>1.083123699930536</v>
+        <v>1.068384792550985</v>
       </c>
       <c r="F7">
-        <v>1.088336223956288</v>
+        <v>1.073887816392739</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058967934436787</v>
+        <v>1.072597164859202</v>
       </c>
       <c r="J7">
-        <v>1.074818697701547</v>
+        <v>1.070170366817681</v>
       </c>
       <c r="K7">
-        <v>1.075327219808579</v>
+        <v>1.073690049252894</v>
       </c>
       <c r="L7">
-        <v>1.085493399733684</v>
+        <v>1.077719658345513</v>
       </c>
       <c r="M7">
-        <v>1.090694008486556</v>
+        <v>1.083166611734253</v>
       </c>
       <c r="N7">
-        <v>1.02849236875347</v>
+        <v>1.026215517672181</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.068943069677355</v>
+        <v>1.044831524340666</v>
       </c>
       <c r="D8">
-        <v>1.071728056844762</v>
+        <v>1.058643561437554</v>
       </c>
       <c r="E8">
-        <v>1.081673369414488</v>
+        <v>1.061762997330846</v>
       </c>
       <c r="F8">
-        <v>1.086877690248778</v>
+        <v>1.067237978922856</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058460616681324</v>
+        <v>1.069699002098906</v>
       </c>
       <c r="J8">
-        <v>1.073766104278329</v>
+        <v>1.06521463189311</v>
       </c>
       <c r="K8">
-        <v>1.074363332826638</v>
+        <v>1.069083709812261</v>
       </c>
       <c r="L8">
-        <v>1.0842830760731</v>
+        <v>1.072166625648009</v>
       </c>
       <c r="M8">
-        <v>1.089474217634984</v>
+        <v>1.07757814776201</v>
       </c>
       <c r="N8">
-        <v>1.028126444774473</v>
+        <v>1.024450411744469</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.066291081114362</v>
+        <v>1.031503079324815</v>
       </c>
       <c r="D9">
-        <v>1.069603030098203</v>
+        <v>1.048146192525587</v>
       </c>
       <c r="E9">
-        <v>1.079120347491209</v>
+        <v>1.049519094645757</v>
       </c>
       <c r="F9">
-        <v>1.084310461831131</v>
+        <v>1.054945394057974</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057556717197595</v>
+        <v>1.064239104846293</v>
       </c>
       <c r="J9">
-        <v>1.071906904967158</v>
+        <v>1.055990408711512</v>
       </c>
       <c r="K9">
-        <v>1.072659750889959</v>
+        <v>1.060503606965108</v>
       </c>
       <c r="L9">
-        <v>1.082148392720213</v>
+        <v>1.061856785110571</v>
       </c>
       <c r="M9">
-        <v>1.087323100243855</v>
+        <v>1.067205762177896</v>
       </c>
       <c r="N9">
-        <v>1.027478255521939</v>
+        <v>1.021157192459616</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.064523105227756</v>
+        <v>1.022107318662942</v>
       </c>
       <c r="D10">
-        <v>1.068186179784113</v>
+        <v>1.040765056167998</v>
       </c>
       <c r="E10">
-        <v>1.077420085607603</v>
+        <v>1.040919367129043</v>
       </c>
       <c r="F10">
-        <v>1.082600898429942</v>
+        <v>1.046313853295162</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056947420470979</v>
+        <v>1.060336660672279</v>
       </c>
       <c r="J10">
-        <v>1.070664458722647</v>
+        <v>1.049470464063177</v>
       </c>
       <c r="K10">
-        <v>1.071520589528765</v>
+        <v>1.054435328681126</v>
       </c>
       <c r="L10">
-        <v>1.080723942044013</v>
+        <v>1.054587127372318</v>
       </c>
       <c r="M10">
-        <v>1.085887862632484</v>
+        <v>1.059894385709575</v>
       </c>
       <c r="N10">
-        <v>1.027043853050268</v>
+        <v>1.018825099977362</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.063757542420853</v>
+        <v>1.017902996509905</v>
       </c>
       <c r="D11">
-        <v>1.067572625602943</v>
+        <v>1.037467690130087</v>
       </c>
       <c r="E11">
-        <v>1.076684262434334</v>
+        <v>1.037079491627903</v>
       </c>
       <c r="F11">
-        <v>1.081861088301438</v>
+        <v>1.042460394602582</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056681996332068</v>
+        <v>1.058578357134919</v>
       </c>
       <c r="J11">
-        <v>1.070125752661171</v>
+        <v>1.04654950055735</v>
       </c>
       <c r="K11">
-        <v>1.071026499427752</v>
+        <v>1.051715998505453</v>
       </c>
       <c r="L11">
-        <v>1.08010681766745</v>
+        <v>1.051334456660165</v>
       </c>
       <c r="M11">
-        <v>1.085266107952095</v>
+        <v>1.056623660571549</v>
       </c>
       <c r="N11">
-        <v>1.026855211563699</v>
+        <v>1.017779496347919</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.063473174387989</v>
+        <v>1.016319511062367</v>
       </c>
       <c r="D12">
-        <v>1.067344716588287</v>
+        <v>1.036226706895889</v>
       </c>
       <c r="E12">
-        <v>1.076411004571024</v>
+        <v>1.035634578541213</v>
       </c>
       <c r="F12">
-        <v>1.081586355657146</v>
+        <v>1.041010468991222</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056583166041367</v>
+        <v>1.057914365456664</v>
       </c>
       <c r="J12">
-        <v>1.069925544638085</v>
+        <v>1.045448906180514</v>
       </c>
       <c r="K12">
-        <v>1.070842847809659</v>
+        <v>1.05069128336048</v>
       </c>
       <c r="L12">
-        <v>1.079877540288561</v>
+        <v>1.050109502919923</v>
       </c>
       <c r="M12">
-        <v>1.085035116796233</v>
+        <v>1.055392003771345</v>
       </c>
       <c r="N12">
-        <v>1.026785060146459</v>
+        <v>1.017385418306957</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.063534172494228</v>
+        <v>1.016660184928065</v>
       </c>
       <c r="D13">
-        <v>1.067393604198684</v>
+        <v>1.036493651476994</v>
       </c>
       <c r="E13">
-        <v>1.076469616623126</v>
+        <v>1.035945379350407</v>
       </c>
       <c r="F13">
-        <v>1.081645283775716</v>
+        <v>1.041322343445725</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056604376338289</v>
+        <v>1.058057296197473</v>
       </c>
       <c r="J13">
-        <v>1.069968494863552</v>
+        <v>1.045685709957545</v>
       </c>
       <c r="K13">
-        <v>1.070882247349583</v>
+        <v>1.050911765021629</v>
       </c>
       <c r="L13">
-        <v>1.079926723333578</v>
+        <v>1.05037303562611</v>
       </c>
       <c r="M13">
-        <v>1.085084667174497</v>
+        <v>1.055656974133929</v>
       </c>
       <c r="N13">
-        <v>1.026800111556209</v>
+        <v>1.017470212453704</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.063734036557891</v>
+        <v>1.017772558599855</v>
       </c>
       <c r="D14">
-        <v>1.067553786731338</v>
+        <v>1.037365446386522</v>
       </c>
       <c r="E14">
-        <v>1.076661673641727</v>
+        <v>1.036960441436507</v>
       </c>
       <c r="F14">
-        <v>1.081838377477238</v>
+        <v>1.04234092937847</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056673831886406</v>
+        <v>1.058523696876918</v>
       </c>
       <c r="J14">
-        <v>1.070109205622744</v>
+        <v>1.046458849344002</v>
       </c>
       <c r="K14">
-        <v>1.071011321271492</v>
+        <v>1.051631598979234</v>
       </c>
       <c r="L14">
-        <v>1.080087866549676</v>
+        <v>1.051233549812007</v>
       </c>
       <c r="M14">
-        <v>1.085247015047835</v>
+        <v>1.056522199571316</v>
       </c>
       <c r="N14">
-        <v>1.026849414490174</v>
+        <v>1.01774703982594</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.063857178846271</v>
+        <v>1.018454994443736</v>
       </c>
       <c r="D15">
-        <v>1.067652479448696</v>
+        <v>1.037900411388142</v>
       </c>
       <c r="E15">
-        <v>1.076780014190045</v>
+        <v>1.037583351848383</v>
       </c>
       <c r="F15">
-        <v>1.081957357576548</v>
+        <v>1.04296601543452</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05671659393547</v>
+        <v>1.058809601734284</v>
       </c>
       <c r="J15">
-        <v>1.070195887755099</v>
+        <v>1.046933107332503</v>
       </c>
       <c r="K15">
-        <v>1.071090831455013</v>
+        <v>1.052073146382565</v>
       </c>
       <c r="L15">
-        <v>1.080187145570659</v>
+        <v>1.05176148743072</v>
       </c>
       <c r="M15">
-        <v>1.085347037110525</v>
+        <v>1.057053040420508</v>
       </c>
       <c r="N15">
-        <v>1.026879780843569</v>
+        <v>1.017916837813441</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.064573912630347</v>
+        <v>1.022383366105664</v>
       </c>
       <c r="D16">
-        <v>1.068226898298391</v>
+        <v>1.04098167595572</v>
       </c>
       <c r="E16">
-        <v>1.077468928167563</v>
+        <v>1.041171663042843</v>
       </c>
       <c r="F16">
-        <v>1.082650006451351</v>
+        <v>1.046567055058793</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056965002168034</v>
+        <v>1.060451861048356</v>
       </c>
       <c r="J16">
-        <v>1.070700195674332</v>
+        <v>1.049662181226206</v>
       </c>
       <c r="K16">
-        <v>1.071553363221892</v>
+        <v>1.054613797868971</v>
       </c>
       <c r="L16">
-        <v>1.080764891593454</v>
+        <v>1.054800702630236</v>
       </c>
       <c r="M16">
-        <v>1.085929120336677</v>
+        <v>1.060109159525828</v>
       </c>
       <c r="N16">
-        <v>1.027056361130255</v>
+        <v>1.018893712709221</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.065023495187561</v>
+        <v>1.024810198820234</v>
       </c>
       <c r="D17">
-        <v>1.068587202785985</v>
+        <v>1.042886690306517</v>
       </c>
       <c r="E17">
-        <v>1.077901172697917</v>
+        <v>1.043390631696826</v>
       </c>
       <c r="F17">
-        <v>1.083084604700854</v>
+        <v>1.048794062026048</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057120394897615</v>
+        <v>1.061463264710172</v>
       </c>
       <c r="J17">
-        <v>1.071016341857559</v>
+        <v>1.051347247386999</v>
       </c>
       <c r="K17">
-        <v>1.071843275758537</v>
+        <v>1.056182343501592</v>
       </c>
       <c r="L17">
-        <v>1.081127208177176</v>
+        <v>1.056678359583927</v>
       </c>
       <c r="M17">
-        <v>1.086294168405971</v>
+        <v>1.061997423614599</v>
       </c>
       <c r="N17">
-        <v>1.027166980014369</v>
+        <v>1.019496682582209</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.065285727476178</v>
+        <v>1.026212717885765</v>
       </c>
       <c r="D18">
-        <v>1.068797357628687</v>
+        <v>1.043988150682978</v>
       </c>
       <c r="E18">
-        <v>1.078153332398886</v>
+        <v>1.044673796795762</v>
       </c>
       <c r="F18">
-        <v>1.08333814120695</v>
+        <v>1.050081933978297</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057210879013371</v>
+        <v>1.062046630322065</v>
       </c>
       <c r="J18">
-        <v>1.071200675282047</v>
+        <v>1.0523207499238</v>
       </c>
       <c r="K18">
-        <v>1.072012297200355</v>
+        <v>1.057088460879398</v>
       </c>
       <c r="L18">
-        <v>1.081338509723226</v>
+        <v>1.057763520423188</v>
       </c>
       <c r="M18">
-        <v>1.086507067087469</v>
+        <v>1.063088772260063</v>
       </c>
       <c r="N18">
-        <v>1.027231449814958</v>
+        <v>1.019844954078825</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065375141675618</v>
+        <v>1.026688774106312</v>
       </c>
       <c r="D19">
-        <v>1.068869014218291</v>
+        <v>1.044362102881991</v>
       </c>
       <c r="E19">
-        <v>1.078239318939063</v>
+        <v>1.045109470229649</v>
       </c>
       <c r="F19">
-        <v>1.083424597865798</v>
+        <v>1.050519215308652</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057241705676871</v>
+        <v>1.062244445657364</v>
       </c>
       <c r="J19">
-        <v>1.071263516481926</v>
+        <v>1.052651127023629</v>
       </c>
       <c r="K19">
-        <v>1.072069915651727</v>
+        <v>1.057395957518421</v>
       </c>
       <c r="L19">
-        <v>1.081410552752068</v>
+        <v>1.058131857825066</v>
       </c>
       <c r="M19">
-        <v>1.08657965535962</v>
+        <v>1.063459219641958</v>
       </c>
       <c r="N19">
-        <v>1.0272534234787</v>
+        <v>1.019963132950218</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064975259409611</v>
+        <v>1.024551178167145</v>
       </c>
       <c r="D20">
-        <v>1.068548546009795</v>
+        <v>1.042683310647211</v>
       </c>
       <c r="E20">
-        <v>1.077854792944188</v>
+        <v>1.043153715833062</v>
       </c>
       <c r="F20">
-        <v>1.083037972009507</v>
+        <v>1.04855628181337</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057103738642763</v>
+        <v>1.061355434204102</v>
       </c>
       <c r="J20">
-        <v>1.0709824295361</v>
+        <v>1.051167431164602</v>
       </c>
       <c r="K20">
-        <v>1.071812179127663</v>
+        <v>1.05601496840096</v>
       </c>
       <c r="L20">
-        <v>1.081088338308475</v>
+        <v>1.056477950775389</v>
       </c>
       <c r="M20">
-        <v>1.086255005070418</v>
+        <v>1.061795876662663</v>
       </c>
       <c r="N20">
-        <v>1.027155117067594</v>
+        <v>1.019432346671253</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.063675181691082</v>
+        <v>1.017445606259186</v>
       </c>
       <c r="D21">
-        <v>1.067506617182669</v>
+        <v>1.037109179840994</v>
       </c>
       <c r="E21">
-        <v>1.076605115996192</v>
+        <v>1.036662054599517</v>
       </c>
       <c r="F21">
-        <v>1.081781514384262</v>
+        <v>1.042041503913898</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05665338558532</v>
+        <v>1.058386658782422</v>
       </c>
       <c r="J21">
-        <v>1.070067772814466</v>
+        <v>1.046231618064969</v>
       </c>
       <c r="K21">
-        <v>1.070973315660926</v>
+        <v>1.05142003704441</v>
       </c>
       <c r="L21">
-        <v>1.080040415271882</v>
+        <v>1.050980621259326</v>
       </c>
       <c r="M21">
-        <v>1.085199208859152</v>
+        <v>1.056267883570548</v>
       </c>
       <c r="N21">
-        <v>1.026834898257397</v>
+        <v>1.017665680938197</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.062857747920232</v>
+        <v>1.012851063307768</v>
       </c>
       <c r="D22">
-        <v>1.066851470598916</v>
+        <v>1.03351025785599</v>
       </c>
       <c r="E22">
-        <v>1.075819739136427</v>
+        <v>1.032472151914665</v>
       </c>
       <c r="F22">
-        <v>1.080991909856445</v>
+        <v>1.037837259493075</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056368842298756</v>
+        <v>1.05645679873431</v>
       </c>
       <c r="J22">
-        <v>1.069492063155038</v>
+        <v>1.043037392828704</v>
       </c>
       <c r="K22">
-        <v>1.070445168019527</v>
+        <v>1.048445870075088</v>
       </c>
       <c r="L22">
-        <v>1.079381255391337</v>
+        <v>1.047426655599403</v>
       </c>
       <c r="M22">
-        <v>1.084535134251594</v>
+        <v>1.052694657825947</v>
       </c>
       <c r="N22">
-        <v>1.026633092000631</v>
+        <v>1.01652178504663</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.063291087664353</v>
+        <v>1.0152992538279</v>
       </c>
       <c r="D23">
-        <v>1.067198780546087</v>
+        <v>1.035427396773216</v>
       </c>
       <c r="E23">
-        <v>1.07623604983116</v>
+        <v>1.034703983468911</v>
       </c>
       <c r="F23">
-        <v>1.08141045832815</v>
+        <v>1.040076674124227</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056519815810904</v>
+        <v>1.057486060609677</v>
       </c>
       <c r="J23">
-        <v>1.069797317542544</v>
+        <v>1.044739658087507</v>
       </c>
       <c r="K23">
-        <v>1.070725217575894</v>
+        <v>1.050030908625371</v>
       </c>
       <c r="L23">
-        <v>1.0797307161352</v>
+        <v>1.049320290892658</v>
       </c>
       <c r="M23">
-        <v>1.084887197012356</v>
+        <v>1.05459850078881</v>
       </c>
       <c r="N23">
-        <v>1.026740118083318</v>
+        <v>1.0171314387581</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.064997055085974</v>
+        <v>1.024668258557039</v>
       </c>
       <c r="D24">
-        <v>1.068566013357224</v>
+        <v>1.042775239071937</v>
       </c>
       <c r="E24">
-        <v>1.077875749838415</v>
+        <v>1.043260802198</v>
       </c>
       <c r="F24">
-        <v>1.083059043183249</v>
+        <v>1.048663758684319</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057111265362543</v>
+        <v>1.061404178425366</v>
       </c>
       <c r="J24">
-        <v>1.070997753268299</v>
+        <v>1.051248711257156</v>
       </c>
       <c r="K24">
-        <v>1.071826230602468</v>
+        <v>1.056090625101338</v>
       </c>
       <c r="L24">
-        <v>1.081105902026354</v>
+        <v>1.056568537856035</v>
       </c>
       <c r="M24">
-        <v>1.086272701381273</v>
+        <v>1.061886978018851</v>
       </c>
       <c r="N24">
-        <v>1.027160477584214</v>
+        <v>1.019461427878466</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.066976676602372</v>
+        <v>1.035034032466886</v>
       </c>
       <c r="D25">
-        <v>1.070152428970521</v>
+        <v>1.05092420545684</v>
       </c>
       <c r="E25">
-        <v>1.07978005400969</v>
+        <v>1.052757563254647</v>
       </c>
       <c r="F25">
-        <v>1.084973811368787</v>
+        <v>1.058196347264413</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057791576303986</v>
+        <v>1.065694920762086</v>
       </c>
       <c r="J25">
-        <v>1.072388075980418</v>
+        <v>1.058437268457947</v>
       </c>
       <c r="K25">
-        <v>1.07310077268085</v>
+        <v>1.062780269046264</v>
       </c>
       <c r="L25">
-        <v>1.082700491840345</v>
+        <v>1.064588590932905</v>
       </c>
       <c r="M25">
-        <v>1.087879418307189</v>
+        <v>1.069953745758713</v>
       </c>
       <c r="N25">
-        <v>1.027646229137347</v>
+        <v>1.022031581228024</v>
       </c>
     </row>
   </sheetData>
